--- a/학습자료/단답형/국어_복습_8일차.xlsx
+++ b/학습자료/단답형/국어_복습_8일차.xlsx
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>그병</t>
+          <t>급여</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
